--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H2">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I2">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J2">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N2">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O2">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P2">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q2">
-        <v>311.565678227895</v>
+        <v>293.7846402150211</v>
       </c>
       <c r="R2">
-        <v>1246.26271291158</v>
+        <v>1175.138560860084</v>
       </c>
       <c r="S2">
-        <v>0.003212417066632899</v>
+        <v>0.003179497158479276</v>
       </c>
       <c r="T2">
-        <v>0.00156713782815979</v>
+        <v>0.001556099072209658</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H3">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I3">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J3">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P3">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q3">
-        <v>1210.881958171509</v>
+        <v>831.8404083860215</v>
       </c>
       <c r="R3">
-        <v>7265.291749029055</v>
+        <v>4991.042450316129</v>
       </c>
       <c r="S3">
-        <v>0.01248487282114168</v>
+        <v>0.009002629316617237</v>
       </c>
       <c r="T3">
-        <v>0.009135885567755435</v>
+        <v>0.006609055974311321</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H4">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I4">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J4">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N4">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O4">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P4">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q4">
-        <v>1666.575957412821</v>
+        <v>850.1216940784594</v>
       </c>
       <c r="R4">
-        <v>9999.455744476925</v>
+        <v>5100.730164470757</v>
       </c>
       <c r="S4">
-        <v>0.0171833337962117</v>
+        <v>0.009200479333112015</v>
       </c>
       <c r="T4">
-        <v>0.01257401444802056</v>
+        <v>0.006754302633653253</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H5">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I5">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J5">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N5">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O5">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P5">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q5">
-        <v>534.370708231854</v>
+        <v>453.6527469620671</v>
       </c>
       <c r="R5">
-        <v>2137.482832927416</v>
+        <v>1814.610987848268</v>
       </c>
       <c r="S5">
-        <v>0.005509662016677884</v>
+        <v>0.004909676757935766</v>
       </c>
       <c r="T5">
-        <v>0.002687820288466228</v>
+        <v>0.002402877897688476</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H6">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I6">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J6">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N6">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O6">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P6">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q6">
-        <v>243.733520066556</v>
+        <v>449.3011729881673</v>
       </c>
       <c r="R6">
-        <v>1462.401120399336</v>
+        <v>2695.807037929003</v>
       </c>
       <c r="S6">
-        <v>0.002513029432592411</v>
+        <v>0.004862581657678651</v>
       </c>
       <c r="T6">
-        <v>0.001838925366198979</v>
+        <v>0.003569743152252027</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H7">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I7">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J7">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N7">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O7">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P7">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q7">
-        <v>1649.252465198663</v>
+        <v>1068.801602788011</v>
       </c>
       <c r="R7">
-        <v>9895.514791191979</v>
+        <v>6412.809616728066</v>
       </c>
       <c r="S7">
-        <v>0.01700471886545628</v>
+        <v>0.01156715223966575</v>
       </c>
       <c r="T7">
-        <v>0.01244331182962377</v>
+        <v>0.008491736572361398</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I8">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J8">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N8">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O8">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P8">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q8">
-        <v>4542.824426462677</v>
+        <v>6235.441703094948</v>
       </c>
       <c r="R8">
-        <v>27256.94655877606</v>
+        <v>37412.6502185697</v>
       </c>
       <c r="S8">
-        <v>0.04683907034076815</v>
+        <v>0.06748334141071237</v>
       </c>
       <c r="T8">
-        <v>0.03427478940824122</v>
+        <v>0.04954121346457318</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I9">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J9">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P9">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q9">
         <v>17655.42394923521</v>
@@ -1013,10 +1013,10 @@
         <v>158898.8155431169</v>
       </c>
       <c r="S9">
-        <v>0.1820373333024088</v>
+        <v>0.1910766003193864</v>
       </c>
       <c r="T9">
-        <v>0.1998104750367113</v>
+        <v>0.2104111869675065</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I10">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J10">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N10">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O10">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P10">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q10">
-        <v>24299.73035204666</v>
+        <v>18043.43569521822</v>
       </c>
       <c r="R10">
-        <v>218697.57316842</v>
+        <v>162390.921256964</v>
       </c>
       <c r="S10">
-        <v>0.2505438626663957</v>
+        <v>0.1952758744642383</v>
       </c>
       <c r="T10">
-        <v>0.275005611808985</v>
+        <v>0.2150353756737288</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I11">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J11">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N11">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O11">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P11">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q11">
-        <v>7791.462525490985</v>
+        <v>9628.567562485596</v>
       </c>
       <c r="R11">
-        <v>46748.77515294591</v>
+        <v>57771.40537491359</v>
       </c>
       <c r="S11">
-        <v>0.08033435304324536</v>
+        <v>0.1042055948968002</v>
       </c>
       <c r="T11">
-        <v>0.05878517683575744</v>
+        <v>0.0764999407715416</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I12">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J12">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N12">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O12">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P12">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q12">
-        <v>3553.788706136595</v>
+        <v>9536.207438378706</v>
       </c>
       <c r="R12">
-        <v>31984.09835522935</v>
+        <v>85825.86694540836</v>
       </c>
       <c r="S12">
-        <v>0.03664155678421682</v>
+        <v>0.1032060234013683</v>
       </c>
       <c r="T12">
-        <v>0.04021904042604493</v>
+        <v>0.1136491954000655</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I13">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J13">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N13">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O13">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P13">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q13">
-        <v>24047.14289109871</v>
+        <v>22684.81456852671</v>
       </c>
       <c r="R13">
-        <v>216424.2860198884</v>
+        <v>204163.3311167404</v>
       </c>
       <c r="S13">
-        <v>0.2479395441323973</v>
+        <v>0.2455074009603453</v>
       </c>
       <c r="T13">
-        <v>0.2721470216836251</v>
+        <v>0.2703497108438594</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H14">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I14">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J14">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N14">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O14">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P14">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q14">
-        <v>3.026917496855</v>
+        <v>4.69016129289</v>
       </c>
       <c r="R14">
-        <v>18.16150498113</v>
+        <v>28.14096775734</v>
       </c>
       <c r="S14">
-        <v>3.120921881220277E-05</v>
+        <v>5.075947637234842E-05</v>
       </c>
       <c r="T14">
-        <v>2.283754554908246E-05</v>
+        <v>3.726380469229829E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H15">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I15">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J15">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P15">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q15">
-        <v>11.763939489941</v>
+        <v>13.28001927676833</v>
       </c>
       <c r="R15">
-        <v>105.875455409469</v>
+        <v>119.520173490915</v>
       </c>
       <c r="S15">
-        <v>0.0001212928208372206</v>
+        <v>0.0001437235912814615</v>
       </c>
       <c r="T15">
-        <v>0.0001331351965575462</v>
+        <v>0.0001582666395896561</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H16">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I16">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J16">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N16">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O16">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P16">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q16">
-        <v>16.191089962229</v>
+        <v>13.57187312752166</v>
       </c>
       <c r="R16">
-        <v>145.719809660061</v>
+        <v>122.146858147695</v>
       </c>
       <c r="S16">
-        <v>0.0001669392277669572</v>
+        <v>0.0001468821923862786</v>
       </c>
       <c r="T16">
-        <v>0.0001832382720470014</v>
+        <v>0.0001617448520265037</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H17">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I17">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J17">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N17">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O17">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P17">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q17">
-        <v>5.191509076846</v>
+        <v>7.24239549303</v>
       </c>
       <c r="R17">
-        <v>31.149054461076</v>
+        <v>43.45437295818</v>
       </c>
       <c r="S17">
-        <v>5.352737328095899E-05</v>
+        <v>7.838114298221445E-05</v>
       </c>
       <c r="T17">
-        <v>3.916899787791774E-05</v>
+        <v>5.75415629235975E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H18">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I18">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J18">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N18">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O18">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P18">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q18">
-        <v>2.367915685244</v>
+        <v>7.172924251100556</v>
       </c>
       <c r="R18">
-        <v>21.311241167196</v>
+        <v>64.556318259905</v>
       </c>
       <c r="S18">
-        <v>2.441454014733166E-05</v>
+        <v>7.762928741839388E-05</v>
       </c>
       <c r="T18">
-        <v>2.67982439433848E-05</v>
+        <v>8.548441034560705E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H19">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I19">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J19">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N19">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O19">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P19">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q19">
-        <v>16.02278906982034</v>
+        <v>17.06301562772722</v>
       </c>
       <c r="R19">
-        <v>144.205101628383</v>
+        <v>153.567140649545</v>
       </c>
       <c r="S19">
-        <v>0.0001652039510760898</v>
+        <v>0.0001846652352680496</v>
       </c>
       <c r="T19">
-        <v>0.0001813335723151813</v>
+        <v>0.0002033510711381541</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H20">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I20">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J20">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N20">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O20">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P20">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q20">
-        <v>346.85233502647</v>
+        <v>339.827754433401</v>
       </c>
       <c r="R20">
-        <v>1387.40934010588</v>
+        <v>1359.311017733604</v>
       </c>
       <c r="S20">
-        <v>0.003576242309416047</v>
+        <v>0.003677800782241669</v>
       </c>
       <c r="T20">
-        <v>0.001744625460985285</v>
+        <v>0.001799977197575318</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H21">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I21">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J21">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P21">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q21">
-        <v>1348.021505520274</v>
+        <v>962.2097936157916</v>
       </c>
       <c r="R21">
-        <v>8088.129033121645</v>
+        <v>5773.258761694749</v>
       </c>
       <c r="S21">
-        <v>0.01389885854934901</v>
+        <v>0.01041355770820151</v>
       </c>
       <c r="T21">
-        <v>0.01017057867135409</v>
+        <v>0.00764485389376063</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H22">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I22">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J22">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N22">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O22">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P22">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q22">
-        <v>1855.325546817106</v>
+        <v>983.3561961658695</v>
       </c>
       <c r="R22">
-        <v>11131.95328090264</v>
+        <v>5900.137176995217</v>
       </c>
       <c r="S22">
-        <v>0.01912944803373298</v>
+        <v>0.01064241557759462</v>
       </c>
       <c r="T22">
-        <v>0.01399809599298164</v>
+        <v>0.007812864195616427</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H23">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I23">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J23">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N23">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O23">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P23">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q23">
-        <v>594.891353162444</v>
+        <v>524.751035928327</v>
       </c>
       <c r="R23">
-        <v>2379.565412649776</v>
+        <v>2099.004143713308</v>
       </c>
       <c r="S23">
-        <v>0.006133663844364599</v>
+        <v>0.005679141109698714</v>
       </c>
       <c r="T23">
-        <v>0.002992231841737448</v>
+        <v>0.002779466617286331</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H24">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I24">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J24">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N24">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O24">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P24">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q24">
-        <v>271.337783545816</v>
+        <v>519.7174657228906</v>
       </c>
       <c r="R24">
-        <v>1628.026701274896</v>
+        <v>3118.304794337344</v>
       </c>
       <c r="S24">
-        <v>0.002797644887083337</v>
+        <v>0.005624665075303324</v>
       </c>
       <c r="T24">
-        <v>0.00204719454605323</v>
+        <v>0.004129207702778301</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H25">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I25">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J25">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N25">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O25">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P25">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q25">
-        <v>1836.040066595185</v>
+        <v>1236.308502529055</v>
       </c>
       <c r="R25">
-        <v>11016.24039957111</v>
+        <v>7417.851015174327</v>
       </c>
       <c r="S25">
-        <v>0.01893060390508734</v>
+        <v>0.01338000301145055</v>
       </c>
       <c r="T25">
-        <v>0.01385259052959796</v>
+        <v>0.00982259579164348</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H26">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I26">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J26">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N26">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O26">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P26">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q26">
-        <v>169.336875228255</v>
+        <v>1.114402376316</v>
       </c>
       <c r="R26">
-        <v>1016.02125136953</v>
+        <v>6.686414257896001</v>
       </c>
       <c r="S26">
-        <v>0.001745958255375089</v>
+        <v>1.206066861189876E-05</v>
       </c>
       <c r="T26">
-        <v>0.001277616124384846</v>
+        <v>8.854039318994158E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H27">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I27">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J27">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P27">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q27">
-        <v>658.117955203821</v>
+        <v>3.155389359847333</v>
       </c>
       <c r="R27">
-        <v>5923.061596834388</v>
+        <v>28.398504238626</v>
       </c>
       <c r="S27">
-        <v>0.006785565609084525</v>
+        <v>3.414933978913095E-05</v>
       </c>
       <c r="T27">
-        <v>0.007448071574920223</v>
+        <v>3.760483024701754E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H28">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I28">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J28">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N28">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O28">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P28">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q28">
-        <v>905.7890027039489</v>
+        <v>3.224735082628666</v>
       </c>
       <c r="R28">
-        <v>8152.101024335539</v>
+        <v>29.022615743658</v>
       </c>
       <c r="S28">
-        <v>0.009339193160185643</v>
+        <v>3.489983691646397E-05</v>
       </c>
       <c r="T28">
-        <v>0.01025102152367997</v>
+        <v>3.843126839336248E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H29">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I29">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J29">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N29">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O29">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P29">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q29">
-        <v>290.432073456126</v>
+        <v>1.720824134532</v>
       </c>
       <c r="R29">
-        <v>1742.592440736756</v>
+        <v>10.324944807192</v>
       </c>
       <c r="S29">
-        <v>0.002994517736275184</v>
+        <v>1.862369469684517E-05</v>
       </c>
       <c r="T29">
-        <v>0.002191257513083935</v>
+        <v>1.367212137377929E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H30">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I30">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J30">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N30">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O30">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P30">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q30">
-        <v>132.469894987164</v>
+        <v>1.704317470420222</v>
       </c>
       <c r="R30">
-        <v>1192.229054884476</v>
+        <v>15.338857233782</v>
       </c>
       <c r="S30">
-        <v>0.001365838990649559</v>
+        <v>1.844505060026832E-05</v>
       </c>
       <c r="T30">
-        <v>0.001499192130506448</v>
+        <v>2.031146139292289E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H31">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I31">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J31">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N31">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O31">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P31">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q31">
-        <v>896.3736330256471</v>
+        <v>4.054245467310889</v>
       </c>
       <c r="R31">
-        <v>8067.362697230823</v>
+        <v>36.48820920579799</v>
       </c>
       <c r="S31">
-        <v>0.009242115412677422</v>
+        <v>4.387724944931744E-05</v>
       </c>
       <c r="T31">
-        <v>0.01014446562938499</v>
+        <v>4.831708394470299E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H32">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I32">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J32">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N32">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O32">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P32">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q32">
-        <v>6.74700550097</v>
+        <v>1.79802603795</v>
       </c>
       <c r="R32">
-        <v>40.48203300582</v>
+        <v>10.7881562277</v>
       </c>
       <c r="S32">
-        <v>6.956541472494433E-05</v>
+        <v>1.945921568380714E-05</v>
       </c>
       <c r="T32">
-        <v>5.090493731937137E-05</v>
+        <v>1.428549828582774E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H33">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I33">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J33">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P33">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q33">
-        <v>26.221845998174</v>
+        <v>5.091044625758333</v>
       </c>
       <c r="R33">
-        <v>235.996613983566</v>
+        <v>45.819401631825</v>
       </c>
       <c r="S33">
-        <v>0.0002703619541223651</v>
+        <v>5.509805383100548E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002967586346439215</v>
+        <v>6.06732948294203E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H34">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I34">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J34">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N34">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O34">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P34">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q34">
-        <v>36.08997376220599</v>
+        <v>5.202930079191666</v>
       </c>
       <c r="R34">
-        <v>324.8097638598539</v>
+        <v>46.82637071272499</v>
       </c>
       <c r="S34">
-        <v>0.0003721078916890278</v>
+        <v>5.630893905974338E-05</v>
       </c>
       <c r="T34">
-        <v>0.0004084384958539156</v>
+        <v>6.200670665396758E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H35">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I35">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J35">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N35">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O35">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P35">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q35">
-        <v>11.571884709844</v>
+        <v>2.77645369965</v>
       </c>
       <c r="R35">
-        <v>69.431308259064</v>
+        <v>16.6587221979</v>
       </c>
       <c r="S35">
-        <v>0.0001193126282280052</v>
+        <v>3.004829198090626E-05</v>
       </c>
       <c r="T35">
-        <v>8.73077790935419E-05</v>
+        <v>2.205920477784156E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H36">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I36">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J36">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N36">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O36">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P36">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q36">
-        <v>5.278089069415999</v>
+        <v>2.749821118363889</v>
       </c>
       <c r="R36">
-        <v>47.502801624744</v>
+        <v>24.748390065275</v>
       </c>
       <c r="S36">
-        <v>5.442006161345682E-05</v>
+        <v>2.976005970143725E-05</v>
       </c>
       <c r="T36">
-        <v>5.973334241525069E-05</v>
+        <v>3.277140934858862E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H37">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I37">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J37">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N37">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O37">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P37">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q37">
-        <v>35.71483071715134</v>
+        <v>6.541298788830554</v>
       </c>
       <c r="R37">
-        <v>321.433476454362</v>
+        <v>58.87168909947499</v>
       </c>
       <c r="S37">
-        <v>0.0003682399562758057</v>
+        <v>7.079349314051472E-05</v>
       </c>
       <c r="T37">
-        <v>0.0004041929161241613</v>
+        <v>7.795691830592211E-05</v>
       </c>
     </row>
   </sheetData>
